--- a/appendix/kubernetes/prometheus/prometheus_helm.xlsx
+++ b/appendix/kubernetes/prometheus/prometheus_helm.xlsx
@@ -4,40 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20835" windowHeight="8370" activeTab="1"/>
+    <workbookView windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="1" r:id="rId1"/>
-    <sheet name="容量规划" sheetId="2" r:id="rId2"/>
+    <sheet name="prometheus-server容量规划" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>hl</author>
-  </authors>
-  <commentList>
-    <comment ref="B8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="0"/>
-          </rPr>
-          <t>官方数字1--2byte</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="514">
   <si>
     <t>﻿</t>
   </si>
@@ -136,6 +114,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
       <t>Prometheus alertmanager ConfigMap override where full-name is </t>
     </r>
     <r>
@@ -1168,6 +1152,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
       <t>Prometheus server ConfigMap override where full-name is </t>
     </r>
     <r>
@@ -1402,6 +1392,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292E"/>
+        <rFont val="-apple-system"/>
+        <charset val="134"/>
+      </rPr>
       <t>Port to be used as the service NodePort (ignored if </t>
     </r>
     <r>
@@ -1594,30 +1590,54 @@
     <t>http://support.transwarp.cn/t/topic/3226</t>
   </si>
   <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>数值</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
     <t>节点数量</t>
   </si>
   <si>
+    <t>根据实际节点数量调整</t>
+  </si>
+  <si>
     <t>抓取间隔(秒)</t>
   </si>
   <si>
+    <t>默认值</t>
+  </si>
+  <si>
     <t>保留时间(天)</t>
   </si>
   <si>
     <t>node原始监控点</t>
   </si>
   <si>
+    <t>根据测试环境计算得出</t>
+  </si>
+  <si>
     <t>活跃样本留存时间(小时)</t>
   </si>
   <si>
     <t>样本(测量点)大小(字节)</t>
   </si>
   <si>
+    <t>官方数值1-2Byte</t>
+  </si>
+  <si>
     <t>每个pod增加的监控点</t>
   </si>
   <si>
     <t>node上pod数量</t>
   </si>
   <si>
+    <t>根据是实际指调整</t>
+  </si>
+  <si>
     <t>node上总的监控点</t>
   </si>
   <si>
@@ -1633,7 +1653,7 @@
     <t>磁盘总容量(GB)</t>
   </si>
   <si>
-    <t>预留30%</t>
+    <t>预留20%</t>
   </si>
   <si>
     <t>内存总容量(GB)</t>
@@ -1645,11 +1665,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1678,11 +1698,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1694,10 +1713,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1709,7 +1752,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1723,33 +1790,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1762,24 +1805,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1799,28 +1834,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1830,6 +1845,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1880,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,169 +2048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2066,51 +2087,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2146,6 +2123,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2159,153 +2171,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2316,29 +2337,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2349,10 +2361,19 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2676,16 +2697,16 @@
   <sheetPr/>
   <dimension ref="B1:E231"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A156" workbookViewId="0">
-      <selection activeCell="C171" sqref="C171"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A204" workbookViewId="0">
+      <selection activeCell="C224" sqref="C224"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="2.125" customWidth="1"/>
     <col min="2" max="2" width="36.875" customWidth="1"/>
     <col min="3" max="3" width="89.375" customWidth="1"/>
-    <col min="4" max="4" width="35.2166666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="35.2166666666667" style="5" customWidth="1"/>
     <col min="5" max="5" width="13.475" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2695,16 +2716,16 @@
       </c>
     </row>
     <row r="2" ht="25" customHeight="1" spans="2:5">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2718,7 +2739,7 @@
       <c r="D3" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" ht="20" customHeight="1" spans="2:5">
       <c r="B4" s="10" t="s">
@@ -2730,7 +2751,7 @@
       <c r="D4" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" ht="20" customHeight="1" spans="2:5">
       <c r="B5" s="7" t="s">
@@ -2742,7 +2763,7 @@
       <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" ht="20" customHeight="1" spans="2:5">
       <c r="B6" s="10" t="s">
@@ -2754,7 +2775,7 @@
       <c r="D6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="3"/>
     </row>
     <row r="7" ht="20" customHeight="1" spans="2:5">
       <c r="B7" s="7" t="s">
@@ -2766,7 +2787,7 @@
       <c r="D7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" ht="20" customHeight="1" spans="2:5">
       <c r="B8" s="10" t="s">
@@ -2778,7 +2799,7 @@
       <c r="D8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="3"/>
     </row>
     <row r="9" ht="20" customHeight="1" spans="2:5">
       <c r="B9" s="7" t="s">
@@ -2790,7 +2811,7 @@
       <c r="D9" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="3"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="2:5">
       <c r="B10" s="10" t="s">
@@ -2802,7 +2823,7 @@
       <c r="D10" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="3"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="2:5">
       <c r="B11" s="7" t="s">
@@ -2814,7 +2835,7 @@
       <c r="D11" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="3"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="2:5">
       <c r="B12" s="10" t="s">
@@ -2826,7 +2847,7 @@
       <c r="D12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="3"/>
     </row>
     <row r="13" ht="20" customHeight="1" spans="2:5">
       <c r="B13" s="7" t="s">
@@ -2838,7 +2859,7 @@
       <c r="D13" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="3"/>
     </row>
     <row r="14" ht="20" customHeight="1" spans="2:5">
       <c r="B14" s="10" t="s">
@@ -2850,7 +2871,7 @@
       <c r="D14" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="2"/>
+      <c r="E14" s="3"/>
     </row>
     <row r="15" ht="20" customHeight="1" spans="2:5">
       <c r="B15" s="7" t="s">
@@ -2862,7 +2883,7 @@
       <c r="D15" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" ht="20" customHeight="1" spans="2:5">
       <c r="B16" s="10" t="s">
@@ -2874,7 +2895,7 @@
       <c r="D16" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="2"/>
+      <c r="E16" s="3"/>
     </row>
     <row r="17" ht="20" customHeight="1" spans="2:5">
       <c r="B17" s="7" t="s">
@@ -2886,7 +2907,7 @@
       <c r="D17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="3"/>
     </row>
     <row r="18" ht="20" customHeight="1" spans="2:5">
       <c r="B18" s="10" t="s">
@@ -2898,7 +2919,7 @@
       <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="3"/>
     </row>
     <row r="19" ht="20" customHeight="1" spans="2:5">
       <c r="B19" s="7" t="s">
@@ -2910,7 +2931,7 @@
       <c r="D19" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" ht="20" customHeight="1" spans="2:5">
       <c r="B20" s="10" t="s">
@@ -2922,7 +2943,7 @@
       <c r="D20" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" ht="20" customHeight="1" spans="2:5">
       <c r="B21" s="7" t="s">
@@ -2934,7 +2955,7 @@
       <c r="D21" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" ht="20" customHeight="1" spans="2:5">
       <c r="B22" s="10" t="s">
@@ -2946,7 +2967,7 @@
       <c r="D22" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="3"/>
     </row>
     <row r="23" ht="20" customHeight="1" spans="2:5">
       <c r="B23" s="7" t="s">
@@ -2958,7 +2979,7 @@
       <c r="D23" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" ht="20" customHeight="1" spans="2:5">
       <c r="B24" s="10" t="s">
@@ -2970,7 +2991,7 @@
       <c r="D24" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="3"/>
     </row>
     <row r="25" ht="20" customHeight="1" spans="2:5">
       <c r="B25" s="7" t="s">
@@ -2982,7 +3003,7 @@
       <c r="D25" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="3"/>
     </row>
     <row r="26" ht="20" customHeight="1" spans="2:5">
       <c r="B26" s="10" t="s">
@@ -2994,7 +3015,7 @@
       <c r="D26" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" ht="20" customHeight="1" spans="2:5">
       <c r="B27" s="7" t="s">
@@ -3006,7 +3027,7 @@
       <c r="D27" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
     </row>
     <row r="28" ht="20" customHeight="1" spans="2:5">
       <c r="B28" s="10" t="s">
@@ -3018,7 +3039,7 @@
       <c r="D28" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" ht="20" customHeight="1" spans="2:5">
       <c r="B29" s="7" t="s">
@@ -3030,7 +3051,7 @@
       <c r="D29" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -3044,7 +3065,7 @@
       <c r="D30" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" ht="20" customHeight="1" spans="2:5">
       <c r="B31" s="7" t="s">
@@ -3056,7 +3077,7 @@
       <c r="D31" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="3"/>
     </row>
     <row r="32" ht="20" customHeight="1" spans="2:5">
       <c r="B32" s="10" t="s">
@@ -3068,7 +3089,7 @@
       <c r="D32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" ht="20" customHeight="1" spans="2:5">
       <c r="B33" s="7" t="s">
@@ -3080,7 +3101,7 @@
       <c r="D33" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" ht="20" customHeight="1" spans="2:5">
       <c r="B34" s="10" t="s">
@@ -3092,7 +3113,7 @@
       <c r="D34" s="12">
         <v>1</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" ht="20" customHeight="1" spans="2:5">
       <c r="B35" s="7" t="s">
@@ -3104,7 +3125,7 @@
       <c r="D35" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="3"/>
     </row>
     <row r="36" ht="20" customHeight="1" spans="2:5">
       <c r="B36" s="10" t="s">
@@ -3116,7 +3137,7 @@
       <c r="D36" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" ht="20" customHeight="1" spans="2:5">
       <c r="B37" s="7" t="s">
@@ -3128,7 +3149,7 @@
       <c r="D37" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="3"/>
     </row>
     <row r="38" ht="20" customHeight="1" spans="2:5">
       <c r="B38" s="10" t="s">
@@ -3140,7 +3161,7 @@
       <c r="D38" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" ht="20" customHeight="1" spans="2:5">
       <c r="B39" s="7" t="s">
@@ -3152,7 +3173,7 @@
       <c r="D39" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="3"/>
     </row>
     <row r="40" ht="20" customHeight="1" spans="2:5">
       <c r="B40" s="10" t="s">
@@ -3164,7 +3185,7 @@
       <c r="D40" s="12">
         <v>80</v>
       </c>
-      <c r="E40" s="2"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" ht="20" customHeight="1" spans="2:5">
       <c r="B41" s="7" t="s">
@@ -3176,7 +3197,7 @@
       <c r="D41" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="2"/>
+      <c r="E41" s="3"/>
     </row>
     <row r="42" ht="20" customHeight="1" spans="2:5">
       <c r="B42" s="10" t="s">
@@ -3188,7 +3209,7 @@
       <c r="D42" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="2"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" ht="20" customHeight="1" spans="2:5">
       <c r="B43" s="7" t="s">
@@ -3200,7 +3221,7 @@
       <c r="D43" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="2"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" ht="20" customHeight="1" spans="2:5">
       <c r="B44" s="10" t="s">
@@ -3212,7 +3233,7 @@
       <c r="D44" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="2"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" ht="20" customHeight="1" spans="2:5">
       <c r="B45" s="7" t="s">
@@ -3224,7 +3245,7 @@
       <c r="D45" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E45" s="2"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" ht="20" customHeight="1" spans="2:5">
       <c r="B46" s="10" t="s">
@@ -3236,7 +3257,7 @@
       <c r="D46" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E46" s="2"/>
+      <c r="E46" s="3"/>
     </row>
     <row r="47" ht="20" customHeight="1" spans="2:5">
       <c r="B47" s="7" t="s">
@@ -3248,7 +3269,7 @@
       <c r="D47" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" ht="20" customHeight="1" spans="2:5">
       <c r="B48" s="10" t="s">
@@ -3260,7 +3281,7 @@
       <c r="D48" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E48" s="2"/>
+      <c r="E48" s="3"/>
     </row>
     <row r="49" ht="20" customHeight="1" spans="2:5">
       <c r="B49" s="7" t="s">
@@ -3272,7 +3293,7 @@
       <c r="D49" s="9">
         <v>80</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" ht="20" customHeight="1" spans="2:5">
       <c r="B50" s="10" t="s">
@@ -3284,7 +3305,7 @@
       <c r="D50" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E50" s="2"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" ht="20" customHeight="1" spans="2:5">
       <c r="B51" s="7" t="s">
@@ -3296,7 +3317,7 @@
       <c r="D51" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="E51" s="2"/>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" ht="20" customHeight="1" spans="2:5">
       <c r="B52" s="10" t="s">
@@ -3308,7 +3329,7 @@
       <c r="D52" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="E52" s="2"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" ht="20" customHeight="1" spans="2:5">
       <c r="B53" s="7" t="s">
@@ -3320,7 +3341,7 @@
       <c r="D53" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="2"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" ht="20" customHeight="1" spans="2:5">
       <c r="B54" s="10" t="s">
@@ -3332,7 +3353,7 @@
       <c r="D54" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E54" s="2"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" ht="20" customHeight="1" spans="2:5">
       <c r="B55" s="7" t="s">
@@ -3344,7 +3365,7 @@
       <c r="D55" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E55" s="2"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="56" ht="20" customHeight="1" spans="2:5">
       <c r="B56" s="10" t="s">
@@ -3356,7 +3377,7 @@
       <c r="D56" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" ht="20" customHeight="1" spans="2:5">
       <c r="B57" s="7" t="s">
@@ -3368,7 +3389,7 @@
       <c r="D57" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" s="3"/>
     </row>
     <row r="58" ht="20" customHeight="1" spans="2:5">
       <c r="B58" s="10" t="s">
@@ -3380,7 +3401,7 @@
       <c r="D58" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E58" s="2"/>
+      <c r="E58" s="3"/>
     </row>
     <row r="59" ht="20" customHeight="1" spans="2:5">
       <c r="B59" s="7" t="s">
@@ -3392,7 +3413,7 @@
       <c r="D59" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E59" s="2"/>
+      <c r="E59" s="3"/>
     </row>
     <row r="60" ht="20" customHeight="1" spans="2:5">
       <c r="B60" s="10" t="s">
@@ -3404,7 +3425,7 @@
       <c r="D60" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="E60" s="2"/>
+      <c r="E60" s="3"/>
     </row>
     <row r="61" ht="20" customHeight="1" spans="2:5">
       <c r="B61" s="7" t="s">
@@ -3416,7 +3437,7 @@
       <c r="D61" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E61" s="2"/>
+      <c r="E61" s="3"/>
     </row>
     <row r="62" ht="20" customHeight="1" spans="2:5">
       <c r="B62" s="10" t="s">
@@ -3428,7 +3449,7 @@
       <c r="D62" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="E62" s="2"/>
+      <c r="E62" s="3"/>
     </row>
     <row r="63" ht="20" customHeight="1" spans="2:5">
       <c r="B63" s="7" t="s">
@@ -3440,7 +3461,7 @@
       <c r="D63" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E63" s="2"/>
+      <c r="E63" s="3"/>
     </row>
     <row r="64" ht="20" customHeight="1" spans="2:5">
       <c r="B64" s="10" t="s">
@@ -3452,7 +3473,7 @@
       <c r="D64" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="2"/>
+      <c r="E64" s="3"/>
     </row>
     <row r="65" ht="20" customHeight="1" spans="2:5">
       <c r="B65" s="7" t="s">
@@ -3464,7 +3485,7 @@
       <c r="D65" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E65" s="2"/>
+      <c r="E65" s="3"/>
     </row>
     <row r="66" ht="20" customHeight="1" spans="2:5">
       <c r="B66" s="10" t="s">
@@ -3476,7 +3497,7 @@
       <c r="D66" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E66" s="2"/>
+      <c r="E66" s="3"/>
     </row>
     <row r="67" ht="20" customHeight="1" spans="2:5">
       <c r="B67" s="7" t="s">
@@ -3488,7 +3509,7 @@
       <c r="D67" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="E67" s="2"/>
+      <c r="E67" s="3"/>
     </row>
     <row r="68" ht="20" customHeight="1" spans="2:5">
       <c r="B68" s="10" t="s">
@@ -3500,7 +3521,7 @@
       <c r="D68" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="E68" s="2"/>
+      <c r="E68" s="3"/>
     </row>
     <row r="69" ht="20" customHeight="1" spans="2:5">
       <c r="B69" s="7" t="s">
@@ -3512,7 +3533,7 @@
       <c r="D69" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="E69" s="2"/>
+      <c r="E69" s="3"/>
     </row>
     <row r="70" ht="20" customHeight="1" spans="2:5">
       <c r="B70" s="10" t="s">
@@ -3524,7 +3545,7 @@
       <c r="D70" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E70" s="2"/>
+      <c r="E70" s="3"/>
     </row>
     <row r="71" ht="20" customHeight="1" spans="2:5">
       <c r="B71" s="7" t="s">
@@ -3536,7 +3557,7 @@
       <c r="D71" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E71" s="2"/>
+      <c r="E71" s="3"/>
     </row>
     <row r="72" ht="20" customHeight="1" spans="2:5">
       <c r="B72" s="10" t="s">
@@ -3548,7 +3569,7 @@
       <c r="D72" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E72" s="2"/>
+      <c r="E72" s="3"/>
     </row>
     <row r="73" ht="20" customHeight="1" spans="2:5">
       <c r="B73" s="7" t="s">
@@ -3560,7 +3581,7 @@
       <c r="D73" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E73" s="2"/>
+      <c r="E73" s="3"/>
     </row>
     <row r="74" ht="20" customHeight="1" spans="2:5">
       <c r="B74" s="10" t="s">
@@ -3572,7 +3593,7 @@
       <c r="D74" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E74" s="2"/>
+      <c r="E74" s="3"/>
     </row>
     <row r="75" ht="20" customHeight="1" spans="2:5">
       <c r="B75" s="7" t="s">
@@ -3584,7 +3605,7 @@
       <c r="D75" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="3"/>
     </row>
     <row r="76" ht="20" customHeight="1" spans="2:5">
       <c r="B76" s="10" t="s">
@@ -3596,7 +3617,7 @@
       <c r="D76" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E76" s="2"/>
+      <c r="E76" s="3"/>
     </row>
     <row r="77" ht="20" customHeight="1" spans="2:5">
       <c r="B77" s="7" t="s">
@@ -3608,7 +3629,7 @@
       <c r="D77" s="9">
         <v>1</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" s="3"/>
     </row>
     <row r="78" ht="20" customHeight="1" spans="2:5">
       <c r="B78" s="10" t="s">
@@ -3620,7 +3641,7 @@
       <c r="D78" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E78" s="2"/>
+      <c r="E78" s="3"/>
     </row>
     <row r="79" ht="20" customHeight="1" spans="2:5">
       <c r="B79" s="7" t="s">
@@ -3632,7 +3653,7 @@
       <c r="D79" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E79" s="2"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" ht="20" customHeight="1" spans="2:5">
       <c r="B80" s="10" t="s">
@@ -3644,7 +3665,7 @@
       <c r="D80" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E80" s="2"/>
+      <c r="E80" s="3"/>
     </row>
     <row r="81" ht="20" customHeight="1" spans="2:5">
       <c r="B81" s="7" t="s">
@@ -3656,7 +3677,7 @@
       <c r="D81" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E81" s="2"/>
+      <c r="E81" s="3"/>
     </row>
     <row r="82" ht="20" customHeight="1" spans="2:5">
       <c r="B82" s="10" t="s">
@@ -3668,7 +3689,7 @@
       <c r="D82" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E82" s="2"/>
+      <c r="E82" s="3"/>
     </row>
     <row r="83" ht="20" customHeight="1" spans="2:5">
       <c r="B83" s="7" t="s">
@@ -3680,7 +3701,7 @@
       <c r="D83" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="3"/>
     </row>
     <row r="84" ht="20" customHeight="1" spans="2:5">
       <c r="B84" s="10" t="s">
@@ -3692,7 +3713,7 @@
       <c r="D84" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E84" s="2"/>
+      <c r="E84" s="3"/>
     </row>
     <row r="85" ht="20" customHeight="1" spans="2:5">
       <c r="B85" s="7" t="s">
@@ -3704,7 +3725,7 @@
       <c r="D85" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E85" s="2"/>
+      <c r="E85" s="3"/>
     </row>
     <row r="86" ht="20" customHeight="1" spans="2:5">
       <c r="B86" s="10" t="s">
@@ -3716,7 +3737,7 @@
       <c r="D86" s="12">
         <v>80</v>
       </c>
-      <c r="E86" s="2"/>
+      <c r="E86" s="3"/>
     </row>
     <row r="87" ht="20" customHeight="1" spans="2:5">
       <c r="B87" s="7" t="s">
@@ -3728,7 +3749,7 @@
       <c r="D87" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="3"/>
     </row>
     <row r="88" ht="20" customHeight="1" spans="2:5">
       <c r="B88" s="10" t="s">
@@ -3740,7 +3761,7 @@
       <c r="D88" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E88" s="2"/>
+      <c r="E88" s="3"/>
     </row>
     <row r="89" ht="20" customHeight="1" spans="2:5">
       <c r="B89" s="7" t="s">
@@ -3752,7 +3773,7 @@
       <c r="D89" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="E89" s="2"/>
+      <c r="E89" s="3"/>
     </row>
     <row r="90" ht="20" customHeight="1" spans="2:5">
       <c r="B90" s="10" t="s">
@@ -3764,7 +3785,7 @@
       <c r="D90" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="2"/>
+      <c r="E90" s="3"/>
     </row>
     <row r="91" ht="20" customHeight="1" spans="2:5">
       <c r="B91" s="7" t="s">
@@ -3776,7 +3797,7 @@
       <c r="D91" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="2"/>
+      <c r="E91" s="3"/>
     </row>
     <row r="92" ht="20" customHeight="1" spans="2:5">
       <c r="B92" s="10" t="s">
@@ -3788,7 +3809,7 @@
       <c r="D92" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E92" s="2"/>
+      <c r="E92" s="3"/>
     </row>
     <row r="93" ht="20" customHeight="1" spans="2:5">
       <c r="B93" s="7" t="s">
@@ -3800,7 +3821,7 @@
       <c r="D93" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E93" s="2"/>
+      <c r="E93" s="3"/>
     </row>
     <row r="94" ht="20" customHeight="1" spans="2:5">
       <c r="B94" s="10" t="s">
@@ -3812,7 +3833,7 @@
       <c r="D94" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E94" s="2"/>
+      <c r="E94" s="3"/>
     </row>
     <row r="95" ht="20" customHeight="1" spans="2:5">
       <c r="B95" s="7" t="s">
@@ -3824,7 +3845,7 @@
       <c r="D95" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E95" s="2"/>
+      <c r="E95" s="3"/>
     </row>
     <row r="96" ht="20" customHeight="1" spans="2:5">
       <c r="B96" s="10" t="s">
@@ -3836,7 +3857,7 @@
       <c r="D96" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E96" s="2"/>
+      <c r="E96" s="3"/>
     </row>
     <row r="97" ht="20" customHeight="1" spans="2:5">
       <c r="B97" s="7" t="s">
@@ -3848,7 +3869,7 @@
       <c r="D97" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E97" s="2"/>
+      <c r="E97" s="3"/>
     </row>
     <row r="98" ht="20" customHeight="1" spans="2:5">
       <c r="B98" s="10" t="s">
@@ -3860,7 +3881,7 @@
       <c r="D98" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E98" s="2"/>
+      <c r="E98" s="3"/>
     </row>
     <row r="99" ht="20" customHeight="1" spans="2:5">
       <c r="B99" s="7" t="s">
@@ -3872,7 +3893,7 @@
       <c r="D99" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E99" s="2"/>
+      <c r="E99" s="3"/>
     </row>
     <row r="100" ht="20" customHeight="1" spans="2:5">
       <c r="B100" s="10" t="s">
@@ -3884,7 +3905,7 @@
       <c r="D100" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E100" s="2"/>
+      <c r="E100" s="3"/>
     </row>
     <row r="101" ht="20" customHeight="1" spans="2:5">
       <c r="B101" s="7" t="s">
@@ -3896,7 +3917,7 @@
       <c r="D101" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E101" s="2"/>
+      <c r="E101" s="3"/>
     </row>
     <row r="102" ht="20" customHeight="1" spans="2:5">
       <c r="B102" s="10" t="s">
@@ -3908,7 +3929,7 @@
       <c r="D102" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E102" s="2"/>
+      <c r="E102" s="3"/>
     </row>
     <row r="103" ht="20" customHeight="1" spans="2:5">
       <c r="B103" s="7" t="s">
@@ -3920,7 +3941,7 @@
       <c r="D103" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E103" s="2"/>
+      <c r="E103" s="3"/>
     </row>
     <row r="104" ht="20" customHeight="1" spans="2:5">
       <c r="B104" s="10" t="s">
@@ -3932,7 +3953,7 @@
       <c r="D104" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E104" s="2"/>
+      <c r="E104" s="3"/>
     </row>
     <row r="105" ht="20" customHeight="1" spans="2:5">
       <c r="B105" s="7" t="s">
@@ -3944,7 +3965,7 @@
       <c r="D105" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E105" s="2"/>
+      <c r="E105" s="3"/>
     </row>
     <row r="106" ht="20" customHeight="1" spans="2:5">
       <c r="B106" s="10" t="s">
@@ -3956,7 +3977,7 @@
       <c r="D106" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E106" s="2"/>
+      <c r="E106" s="3"/>
     </row>
     <row r="107" ht="20" customHeight="1" spans="2:5">
       <c r="B107" s="7" t="s">
@@ -3968,7 +3989,7 @@
       <c r="D107" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="E107" s="2"/>
+      <c r="E107" s="3"/>
     </row>
     <row r="108" ht="20" customHeight="1" spans="2:5">
       <c r="B108" s="10" t="s">
@@ -3980,7 +4001,7 @@
       <c r="D108" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="E108" s="2"/>
+      <c r="E108" s="3"/>
     </row>
     <row r="109" ht="20" customHeight="1" spans="2:5">
       <c r="B109" s="7" t="s">
@@ -3992,7 +4013,7 @@
       <c r="D109" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E109" s="2"/>
+      <c r="E109" s="3"/>
     </row>
     <row r="110" ht="20" customHeight="1" spans="2:5">
       <c r="B110" s="10" t="s">
@@ -4004,7 +4025,7 @@
       <c r="D110" s="12">
         <v>9100</v>
       </c>
-      <c r="E110" s="2"/>
+      <c r="E110" s="3"/>
     </row>
     <row r="111" ht="20" customHeight="1" spans="2:5">
       <c r="B111" s="7" t="s">
@@ -4016,7 +4037,7 @@
       <c r="D111" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E111" s="2"/>
+      <c r="E111" s="3"/>
     </row>
     <row r="112" ht="20" customHeight="1" spans="2:5">
       <c r="B112" s="10" t="s">
@@ -4028,7 +4049,7 @@
       <c r="D112" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E112" s="2"/>
+      <c r="E112" s="3"/>
     </row>
     <row r="113" ht="20" customHeight="1" spans="2:5">
       <c r="B113" s="7" t="s">
@@ -4040,7 +4061,7 @@
       <c r="D113" s="9">
         <v>9100</v>
       </c>
-      <c r="E113" s="2"/>
+      <c r="E113" s="3"/>
     </row>
     <row r="114" ht="20" customHeight="1" spans="2:5">
       <c r="B114" s="10" t="s">
@@ -4052,7 +4073,7 @@
       <c r="D114" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E114" s="2"/>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" ht="20" customHeight="1" spans="2:5">
       <c r="B115" s="7" t="s">
@@ -4064,7 +4085,7 @@
       <c r="D115" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E115" s="2"/>
+      <c r="E115" s="3"/>
     </row>
     <row r="116" ht="20" customHeight="1" spans="2:5">
       <c r="B116" s="10" t="s">
@@ -4076,7 +4097,7 @@
       <c r="D116" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E116" s="2"/>
+      <c r="E116" s="3"/>
     </row>
     <row r="117" ht="20" customHeight="1" spans="2:5">
       <c r="B117" s="7" t="s">
@@ -4088,7 +4109,7 @@
       <c r="D117" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="E117" s="2"/>
+      <c r="E117" s="3"/>
     </row>
     <row r="118" ht="20" customHeight="1" spans="2:5">
       <c r="B118" s="10" t="s">
@@ -4100,7 +4121,7 @@
       <c r="D118" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="E118" s="2"/>
+      <c r="E118" s="3"/>
     </row>
     <row r="119" ht="20" customHeight="1" spans="2:5">
       <c r="B119" s="7" t="s">
@@ -4112,7 +4133,7 @@
       <c r="D119" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="E119" s="2"/>
+      <c r="E119" s="3"/>
     </row>
     <row r="120" ht="20" customHeight="1" spans="2:5">
       <c r="B120" s="10" t="s">
@@ -4124,7 +4145,7 @@
       <c r="D120" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E120" s="2"/>
+      <c r="E120" s="3"/>
     </row>
     <row r="121" ht="20" customHeight="1" spans="2:5">
       <c r="B121" s="7" t="s">
@@ -4136,7 +4157,7 @@
       <c r="D121" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="3"/>
     </row>
     <row r="122" ht="20" customHeight="1" spans="2:5">
       <c r="B122" s="10" t="s">
@@ -4148,7 +4169,7 @@
       <c r="D122" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E122" s="2"/>
+      <c r="E122" s="3"/>
     </row>
     <row r="123" ht="20" customHeight="1" spans="2:5">
       <c r="B123" s="7" t="s">
@@ -4160,7 +4181,7 @@
       <c r="D123" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E123" s="2"/>
+      <c r="E123" s="3"/>
     </row>
     <row r="124" ht="20" customHeight="1" spans="2:5">
       <c r="B124" s="10" t="s">
@@ -4172,7 +4193,7 @@
       <c r="D124" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E124" s="2"/>
+      <c r="E124" s="3"/>
     </row>
     <row r="125" ht="20" customHeight="1" spans="2:5">
       <c r="B125" s="7" t="s">
@@ -4184,7 +4205,7 @@
       <c r="D125" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E125" s="2"/>
+      <c r="E125" s="3"/>
     </row>
     <row r="126" ht="20" customHeight="1" spans="2:5">
       <c r="B126" s="10" t="s">
@@ -4196,7 +4217,7 @@
       <c r="D126" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E126" s="2"/>
+      <c r="E126" s="3"/>
     </row>
     <row r="127" ht="20" customHeight="1" spans="2:5">
       <c r="B127" s="7" t="s">
@@ -4208,7 +4229,7 @@
       <c r="D127" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E127" s="2"/>
+      <c r="E127" s="3"/>
     </row>
     <row r="128" ht="20" customHeight="1" spans="2:5">
       <c r="B128" s="10" t="s">
@@ -4220,7 +4241,7 @@
       <c r="D128" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E128" s="2"/>
+      <c r="E128" s="3"/>
     </row>
     <row r="129" ht="20" customHeight="1" spans="2:5">
       <c r="B129" s="7" t="s">
@@ -4232,7 +4253,7 @@
       <c r="D129" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E129" s="2"/>
+      <c r="E129" s="3"/>
     </row>
     <row r="130" ht="20" customHeight="1" spans="2:5">
       <c r="B130" s="10" t="s">
@@ -4244,7 +4265,7 @@
       <c r="D130" s="12">
         <v>1</v>
       </c>
-      <c r="E130" s="2"/>
+      <c r="E130" s="3"/>
     </row>
     <row r="131" ht="20" customHeight="1" spans="2:5">
       <c r="B131" s="7" t="s">
@@ -4256,7 +4277,7 @@
       <c r="D131" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E131" s="2"/>
+      <c r="E131" s="3"/>
     </row>
     <row r="132" ht="20" customHeight="1" spans="2:5">
       <c r="B132" s="10" t="s">
@@ -4268,7 +4289,7 @@
       <c r="D132" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E132" s="2"/>
+      <c r="E132" s="3"/>
     </row>
     <row r="133" ht="20" customHeight="1" spans="2:5">
       <c r="B133" s="7" t="s">
@@ -4280,7 +4301,7 @@
       <c r="D133" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E133" s="2"/>
+      <c r="E133" s="3"/>
     </row>
     <row r="134" ht="20" customHeight="1" spans="2:5">
       <c r="B134" s="10" t="s">
@@ -4292,7 +4313,7 @@
       <c r="D134" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E134" s="2"/>
+      <c r="E134" s="3"/>
     </row>
     <row r="135" ht="20" customHeight="1" spans="2:5">
       <c r="B135" s="7" t="s">
@@ -4304,7 +4325,7 @@
       <c r="D135" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E135" s="2"/>
+      <c r="E135" s="3"/>
     </row>
     <row r="136" ht="20" customHeight="1" spans="2:5">
       <c r="B136" s="10" t="s">
@@ -4316,7 +4337,7 @@
       <c r="D136" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E136" s="2"/>
+      <c r="E136" s="3"/>
     </row>
     <row r="137" ht="20" customHeight="1" spans="2:5">
       <c r="B137" s="7" t="s">
@@ -4328,7 +4349,7 @@
       <c r="D137" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="E137" s="2"/>
+      <c r="E137" s="3"/>
     </row>
     <row r="138" ht="20" customHeight="1" spans="2:5">
       <c r="B138" s="10" t="s">
@@ -4340,7 +4361,7 @@
       <c r="D138" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E138" s="2"/>
+      <c r="E138" s="3"/>
     </row>
     <row r="139" ht="20" customHeight="1" spans="2:5">
       <c r="B139" s="7" t="s">
@@ -4352,7 +4373,7 @@
       <c r="D139" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E139" s="2"/>
+      <c r="E139" s="3"/>
     </row>
     <row r="140" ht="20" customHeight="1" spans="2:5">
       <c r="B140" s="10" t="s">
@@ -4364,7 +4385,7 @@
       <c r="D140" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E140" s="2"/>
+      <c r="E140" s="3"/>
     </row>
     <row r="141" ht="20" customHeight="1" spans="2:5">
       <c r="B141" s="7" t="s">
@@ -4376,7 +4397,7 @@
       <c r="D141" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E141" s="2"/>
+      <c r="E141" s="3"/>
     </row>
     <row r="142" ht="20" customHeight="1" spans="2:5">
       <c r="B142" s="10" t="s">
@@ -4388,7 +4409,7 @@
       <c r="D142" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E142" s="2"/>
+      <c r="E142" s="3"/>
     </row>
     <row r="143" ht="20" customHeight="1" spans="2:5">
       <c r="B143" s="7" t="s">
@@ -4400,7 +4421,7 @@
       <c r="D143" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E143" s="2"/>
+      <c r="E143" s="3"/>
     </row>
     <row r="144" ht="20" customHeight="1" spans="2:5">
       <c r="B144" s="10" t="s">
@@ -4412,7 +4433,7 @@
       <c r="D144" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E144" s="2"/>
+      <c r="E144" s="3"/>
     </row>
     <row r="145" ht="20" customHeight="1" spans="2:5">
       <c r="B145" s="7" t="s">
@@ -4424,7 +4445,7 @@
       <c r="D145" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E145" s="2"/>
+      <c r="E145" s="3"/>
     </row>
     <row r="146" ht="20" customHeight="1" spans="2:5">
       <c r="B146" s="10" t="s">
@@ -4436,7 +4457,7 @@
       <c r="D146" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E146" s="2"/>
+      <c r="E146" s="3"/>
     </row>
     <row r="147" ht="20" customHeight="1" spans="2:5">
       <c r="B147" s="7" t="s">
@@ -4448,7 +4469,7 @@
       <c r="D147" s="9">
         <v>9091</v>
       </c>
-      <c r="E147" s="2"/>
+      <c r="E147" s="3"/>
     </row>
     <row r="148" ht="20" customHeight="1" spans="2:5">
       <c r="B148" s="10" t="s">
@@ -4460,7 +4481,7 @@
       <c r="D148" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E148" s="2"/>
+      <c r="E148" s="3"/>
     </row>
     <row r="149" ht="20" customHeight="1" spans="2:5">
       <c r="B149" s="7" t="s">
@@ -4472,7 +4493,7 @@
       <c r="D149" s="9" t="b">
         <v>1</v>
       </c>
-      <c r="E149" s="2"/>
+      <c r="E149" s="3"/>
     </row>
     <row r="150" ht="20" customHeight="1" spans="2:5">
       <c r="B150" s="10" t="s">
@@ -4484,7 +4505,7 @@
       <c r="D150" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E150" s="2"/>
+      <c r="E150" s="3"/>
     </row>
     <row r="151" ht="20" customHeight="1" spans="2:5">
       <c r="B151" s="7" t="s">
@@ -4496,7 +4517,7 @@
       <c r="D151" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="E151" s="2"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" ht="20" customHeight="1" spans="2:5">
       <c r="B152" s="10" t="s">
@@ -4508,7 +4529,7 @@
       <c r="D152" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="E152" s="2"/>
+      <c r="E152" s="3"/>
     </row>
     <row r="153" ht="20" customHeight="1" spans="2:5">
       <c r="B153" s="7" t="s">
@@ -4520,7 +4541,7 @@
       <c r="D153" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="E153" s="2"/>
+      <c r="E153" s="3"/>
     </row>
     <row r="154" ht="20" customHeight="1" spans="2:5">
       <c r="B154" s="10" t="s">
@@ -4532,7 +4553,7 @@
       <c r="D154" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E154" s="2"/>
+      <c r="E154" s="3"/>
     </row>
     <row r="155" ht="20" customHeight="1" spans="2:5">
       <c r="B155" s="7" t="s">
@@ -4544,7 +4565,7 @@
       <c r="D155" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E155" s="2"/>
+      <c r="E155" s="3"/>
     </row>
     <row r="156" ht="20" customHeight="1" spans="2:5">
       <c r="B156" s="10" t="s">
@@ -4556,7 +4577,7 @@
       <c r="D156" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E156" s="2"/>
+      <c r="E156" s="3"/>
     </row>
     <row r="157" ht="20" customHeight="1" spans="2:5">
       <c r="B157" s="7" t="s">
@@ -4568,7 +4589,7 @@
       <c r="D157" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="E157" s="2"/>
+      <c r="E157" s="3"/>
     </row>
     <row r="158" ht="20" customHeight="1" spans="2:5">
       <c r="B158" s="10" t="s">
@@ -4580,7 +4601,7 @@
       <c r="D158" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E158" s="2"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" ht="20" customHeight="1" spans="2:5">
       <c r="B159" s="7" t="s">
@@ -4592,7 +4613,7 @@
       <c r="D159" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="E159" s="2"/>
+      <c r="E159" s="3"/>
     </row>
     <row r="160" ht="20" customHeight="1" spans="2:5">
       <c r="B160" s="10" t="s">
@@ -4604,7 +4625,7 @@
       <c r="D160" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="E160" s="2"/>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" ht="20" customHeight="1" spans="2:5">
       <c r="B161" s="7" t="s">
@@ -4616,7 +4637,7 @@
       <c r="D161" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E161" s="2"/>
+      <c r="E161" s="3"/>
     </row>
     <row r="162" ht="20" customHeight="1" spans="2:5">
       <c r="B162" s="10" t="s">
@@ -4628,7 +4649,7 @@
       <c r="D162" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E162" s="2"/>
+      <c r="E162" s="3"/>
     </row>
     <row r="163" ht="20" customHeight="1" spans="2:5">
       <c r="B163" s="7" t="s">
@@ -4640,7 +4661,7 @@
       <c r="D163" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E163" s="2"/>
+      <c r="E163" s="3"/>
     </row>
     <row r="164" ht="20" customHeight="1" spans="2:5">
       <c r="B164" s="10" t="s">
@@ -4652,7 +4673,7 @@
       <c r="D164" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E164" s="2"/>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" ht="20" customHeight="1" spans="2:5">
       <c r="B165" s="7" t="s">
@@ -4664,7 +4685,7 @@
       <c r="D165" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E165" s="2"/>
+      <c r="E165" s="3"/>
     </row>
     <row r="166" ht="20" customHeight="1" spans="2:5">
       <c r="B166" s="10" t="s">
@@ -4676,7 +4697,7 @@
       <c r="D166" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E166" s="2"/>
+      <c r="E166" s="3"/>
     </row>
     <row r="167" ht="20" customHeight="1" spans="2:5">
       <c r="B167" s="7" t="s">
@@ -4688,7 +4709,7 @@
       <c r="D167" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E167" s="2"/>
+      <c r="E167" s="3"/>
     </row>
     <row r="168" ht="20" customHeight="1" spans="2:5">
       <c r="B168" s="10" t="s">
@@ -4700,7 +4721,7 @@
       <c r="D168" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E168" s="2"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" ht="20" customHeight="1" spans="2:5">
       <c r="B169" s="7" t="s">
@@ -4712,7 +4733,7 @@
       <c r="D169" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E169" s="2"/>
+      <c r="E169" s="3"/>
     </row>
     <row r="170" ht="20" customHeight="1" spans="2:5">
       <c r="B170" s="10" t="s">
@@ -4724,7 +4745,7 @@
       <c r="D170" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E170" s="2"/>
+      <c r="E170" s="3"/>
     </row>
     <row r="171" ht="20" customHeight="1" spans="2:5">
       <c r="B171" s="7" t="s">
@@ -4736,7 +4757,7 @@
       <c r="D171" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E171" s="2"/>
+      <c r="E171" s="3"/>
     </row>
     <row r="172" ht="20" customHeight="1" spans="2:5">
       <c r="B172" s="10" t="s">
@@ -4748,7 +4769,7 @@
       <c r="D172" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E172" s="2"/>
+      <c r="E172" s="3"/>
     </row>
     <row r="173" ht="20" customHeight="1" spans="2:5">
       <c r="B173" s="7" t="s">
@@ -4760,7 +4781,7 @@
       <c r="D173" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="2"/>
+      <c r="E173" s="3"/>
     </row>
     <row r="174" ht="20" customHeight="1" spans="2:5">
       <c r="B174" s="10" t="s">
@@ -4772,7 +4793,7 @@
       <c r="D174" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E174" s="2"/>
+      <c r="E174" s="3"/>
     </row>
     <row r="175" ht="20" customHeight="1" spans="2:5">
       <c r="B175" s="7" t="s">
@@ -4784,7 +4805,7 @@
       <c r="D175" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E175" s="2"/>
+      <c r="E175" s="3"/>
     </row>
     <row r="176" ht="20" customHeight="1" spans="2:5">
       <c r="B176" s="10" t="s">
@@ -4796,7 +4817,7 @@
       <c r="D176" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E176" s="2"/>
+      <c r="E176" s="3"/>
     </row>
     <row r="177" ht="20" customHeight="1" spans="2:5">
       <c r="B177" s="7" t="s">
@@ -4808,7 +4829,7 @@
       <c r="D177" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E177" s="2"/>
+      <c r="E177" s="3"/>
     </row>
     <row r="178" ht="20" customHeight="1" spans="2:5">
       <c r="B178" s="10" t="s">
@@ -4820,7 +4841,7 @@
       <c r="D178" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E178" s="2"/>
+      <c r="E178" s="3"/>
     </row>
     <row r="179" ht="20" customHeight="1" spans="2:5">
       <c r="B179" s="7" t="s">
@@ -4832,7 +4853,7 @@
       <c r="D179" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E179" s="2"/>
+      <c r="E179" s="3"/>
     </row>
     <row r="180" ht="20" customHeight="1" spans="2:5">
       <c r="B180" s="10" t="s">
@@ -4844,7 +4865,7 @@
       <c r="D180" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="E180" s="2"/>
+      <c r="E180" s="3"/>
     </row>
     <row r="181" ht="20" customHeight="1" spans="2:5">
       <c r="B181" s="7" t="s">
@@ -4856,7 +4877,7 @@
       <c r="D181" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E181" s="2"/>
+      <c r="E181" s="3"/>
     </row>
     <row r="182" ht="20" customHeight="1" spans="2:5">
       <c r="B182" s="10" t="s">
@@ -4868,7 +4889,7 @@
       <c r="D182" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E182" s="2"/>
+      <c r="E182" s="3"/>
     </row>
     <row r="183" ht="20" customHeight="1" spans="2:5">
       <c r="B183" s="7" t="s">
@@ -4880,7 +4901,7 @@
       <c r="D183" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="E183" s="2"/>
+      <c r="E183" s="3"/>
     </row>
     <row r="184" ht="20" customHeight="1" spans="2:5">
       <c r="B184" s="10" t="s">
@@ -4892,7 +4913,7 @@
       <c r="D184" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E184" s="2"/>
+      <c r="E184" s="3"/>
     </row>
     <row r="185" ht="20" customHeight="1" spans="2:5">
       <c r="B185" s="7" t="s">
@@ -4904,7 +4925,7 @@
       <c r="D185" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E185" s="2"/>
+      <c r="E185" s="3"/>
     </row>
     <row r="186" ht="20" customHeight="1" spans="2:5">
       <c r="B186" s="10" t="s">
@@ -4916,7 +4937,7 @@
       <c r="D186" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E186" s="2"/>
+      <c r="E186" s="3"/>
     </row>
     <row r="187" ht="20" customHeight="1" spans="2:5">
       <c r="B187" s="7" t="s">
@@ -4928,7 +4949,7 @@
       <c r="D187" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="E187" s="2"/>
+      <c r="E187" s="3"/>
     </row>
     <row r="188" ht="20" customHeight="1" spans="2:5">
       <c r="B188" s="10" t="s">
@@ -4940,7 +4961,7 @@
       <c r="D188" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E188" s="2"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" ht="20" customHeight="1" spans="2:5">
       <c r="B189" s="7" t="s">
@@ -4952,7 +4973,7 @@
       <c r="D189" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E189" s="2"/>
+      <c r="E189" s="3"/>
     </row>
     <row r="190" ht="20" customHeight="1" spans="2:5">
       <c r="B190" s="10" t="s">
@@ -4964,7 +4985,7 @@
       <c r="D190" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E190" s="2"/>
+      <c r="E190" s="3"/>
     </row>
     <row r="191" ht="20" customHeight="1" spans="2:5">
       <c r="B191" s="7" t="s">
@@ -4976,7 +4997,7 @@
       <c r="D191" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E191" s="2"/>
+      <c r="E191" s="3"/>
     </row>
     <row r="192" ht="20" customHeight="1" spans="2:5">
       <c r="B192" s="10" t="s">
@@ -4988,7 +5009,7 @@
       <c r="D192" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E192" s="2"/>
+      <c r="E192" s="3"/>
     </row>
     <row r="193" ht="20" customHeight="1" spans="2:5">
       <c r="B193" s="7" t="s">
@@ -5000,7 +5021,7 @@
       <c r="D193" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E193" s="2"/>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" ht="20" customHeight="1" spans="2:5">
       <c r="B194" s="10" t="s">
@@ -5012,7 +5033,7 @@
       <c r="D194" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E194" s="2"/>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" ht="20" customHeight="1" spans="2:5">
       <c r="B195" s="7" t="s">
@@ -5024,7 +5045,7 @@
       <c r="D195" s="9">
         <v>1</v>
       </c>
-      <c r="E195" s="2"/>
+      <c r="E195" s="3"/>
     </row>
     <row r="196" ht="20" customHeight="1" spans="2:5">
       <c r="B196" s="10" t="s">
@@ -5036,7 +5057,7 @@
       <c r="D196" s="12" t="b">
         <v>0</v>
       </c>
-      <c r="E196" s="2"/>
+      <c r="E196" s="3"/>
     </row>
     <row r="197" ht="20" customHeight="1" spans="2:5">
       <c r="B197" s="7" t="s">
@@ -5048,7 +5069,7 @@
       <c r="D197" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E197" s="2"/>
+      <c r="E197" s="3"/>
     </row>
     <row r="198" ht="20" customHeight="1" spans="2:5">
       <c r="B198" s="10" t="s">
@@ -5060,7 +5081,7 @@
       <c r="D198" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E198" s="2"/>
+      <c r="E198" s="3"/>
     </row>
     <row r="199" ht="20" customHeight="1" spans="2:5">
       <c r="B199" s="7" t="s">
@@ -5072,7 +5093,7 @@
       <c r="D199" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E199" s="2"/>
+      <c r="E199" s="3"/>
     </row>
     <row r="200" ht="20" customHeight="1" spans="2:5">
       <c r="B200" s="10" t="s">
@@ -5084,7 +5105,7 @@
       <c r="D200" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E200" s="2"/>
+      <c r="E200" s="3"/>
     </row>
     <row r="201" ht="20" customHeight="1" spans="2:5">
       <c r="B201" s="7" t="s">
@@ -5096,7 +5117,7 @@
       <c r="D201" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E201" s="2"/>
+      <c r="E201" s="3"/>
     </row>
     <row r="202" ht="20" customHeight="1" spans="2:5">
       <c r="B202" s="10" t="s">
@@ -5108,7 +5129,7 @@
       <c r="D202" s="12">
         <v>80</v>
       </c>
-      <c r="E202" s="2"/>
+      <c r="E202" s="3"/>
     </row>
     <row r="203" ht="20" customHeight="1" spans="2:5">
       <c r="B203" s="7" t="s">
@@ -5120,7 +5141,7 @@
       <c r="D203" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E203" s="2"/>
+      <c r="E203" s="3"/>
     </row>
     <row r="204" ht="20" customHeight="1" spans="2:5">
       <c r="B204" s="10" t="s">
@@ -5132,7 +5153,7 @@
       <c r="D204" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E204" s="2"/>
+      <c r="E204" s="3"/>
     </row>
     <row r="205" ht="20" customHeight="1" spans="2:5">
       <c r="B205" s="7" t="s">
@@ -5144,7 +5165,7 @@
       <c r="D205" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E205" s="2"/>
+      <c r="E205" s="3"/>
     </row>
     <row r="206" ht="20" customHeight="1" spans="2:5">
       <c r="B206" s="10" t="s">
@@ -5156,7 +5177,7 @@
       <c r="D206" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E206" s="2"/>
+      <c r="E206" s="3"/>
     </row>
     <row r="207" ht="20" customHeight="1" spans="2:5">
       <c r="B207" s="7" t="s">
@@ -5168,7 +5189,7 @@
       <c r="D207" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E207" s="2"/>
+      <c r="E207" s="3"/>
     </row>
     <row r="208" ht="20" customHeight="1" spans="2:5">
       <c r="B208" s="10" t="s">
@@ -5180,7 +5201,7 @@
       <c r="D208" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="E208" s="2"/>
+      <c r="E208" s="3"/>
     </row>
     <row r="209" ht="20" customHeight="1" spans="2:5">
       <c r="B209" s="7" t="s">
@@ -5192,7 +5213,7 @@
       <c r="D209" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E209" s="2"/>
+      <c r="E209" s="3"/>
     </row>
     <row r="210" ht="20" customHeight="1" spans="2:5">
       <c r="B210" s="10" t="s">
@@ -5204,7 +5225,7 @@
       <c r="D210" s="12">
         <v>0</v>
       </c>
-      <c r="E210" s="2"/>
+      <c r="E210" s="3"/>
     </row>
     <row r="211" ht="20" customHeight="1" spans="2:5">
       <c r="B211" s="7" t="s">
@@ -5216,7 +5237,7 @@
       <c r="D211" s="9">
         <v>80</v>
       </c>
-      <c r="E211" s="2"/>
+      <c r="E211" s="3"/>
     </row>
     <row r="212" ht="20" customHeight="1" spans="2:5">
       <c r="B212" s="10" t="s">
@@ -5228,7 +5249,7 @@
       <c r="D212" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E212" s="2"/>
+      <c r="E212" s="3"/>
     </row>
     <row r="213" ht="20" customHeight="1" spans="2:5">
       <c r="B213" s="7" t="s">
@@ -5240,7 +5261,7 @@
       <c r="D213" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E213" s="2"/>
+      <c r="E213" s="3"/>
     </row>
     <row r="214" ht="20" customHeight="1" spans="2:5">
       <c r="B214" s="10" t="s">
@@ -5252,7 +5273,7 @@
       <c r="D214" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E214" s="2"/>
+      <c r="E214" s="3"/>
     </row>
     <row r="215" ht="21" customHeight="1" spans="2:5">
       <c r="B215" s="7" t="s">
@@ -5264,7 +5285,7 @@
       <c r="D215" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E215" s="2"/>
+      <c r="E215" s="3"/>
     </row>
     <row r="216" ht="20" customHeight="1" spans="2:5">
       <c r="B216" s="10" t="s">
@@ -5276,9 +5297,9 @@
       <c r="D216" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E216" s="2"/>
-    </row>
-    <row r="217" spans="2:5">
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" ht="15.75" spans="2:5">
       <c r="B217" s="7" t="s">
         <v>454</v>
       </c>
@@ -5288,7 +5309,7 @@
       <c r="D217" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E217" s="2"/>
+      <c r="E217" s="3"/>
     </row>
     <row r="218" ht="20" customHeight="1" spans="2:5">
       <c r="B218" s="10" t="s">
@@ -5300,7 +5321,7 @@
       <c r="D218" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E218" s="2"/>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" ht="20" customHeight="1" spans="2:5">
       <c r="B219" s="7" t="s">
@@ -5312,7 +5333,7 @@
       <c r="D219" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="E219" s="2"/>
+      <c r="E219" s="3"/>
     </row>
     <row r="220" ht="20" customHeight="1" spans="2:5">
       <c r="B220" s="10" t="s">
@@ -5324,7 +5345,7 @@
       <c r="D220" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E220" s="2"/>
+      <c r="E220" s="3"/>
     </row>
     <row r="221" ht="20" customHeight="1" spans="2:5">
       <c r="B221" s="7" t="s">
@@ -5336,7 +5357,7 @@
       <c r="D221" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="E221" s="2"/>
+      <c r="E221" s="3"/>
     </row>
     <row r="222" ht="20" customHeight="1" spans="2:5">
       <c r="B222" s="10" t="s">
@@ -5348,7 +5369,7 @@
       <c r="D222" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="E222" s="2"/>
+      <c r="E222" s="3"/>
     </row>
     <row r="223" ht="20" customHeight="1" spans="2:5">
       <c r="B223" s="7" t="s">
@@ -5360,7 +5381,7 @@
       <c r="D223" s="9" t="s">
         <v>471</v>
       </c>
-      <c r="E223" s="2"/>
+      <c r="E223" s="3"/>
     </row>
     <row r="224" ht="20" customHeight="1" spans="2:5">
       <c r="B224" s="10" t="s">
@@ -5372,7 +5393,7 @@
       <c r="D224" s="12">
         <v>300</v>
       </c>
-      <c r="E224" s="2"/>
+      <c r="E224" s="3"/>
     </row>
     <row r="225" ht="20" customHeight="1" spans="2:5">
       <c r="B225" s="7" t="s">
@@ -5384,7 +5405,7 @@
       <c r="D225" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="E225" s="2"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" ht="20" customHeight="1" spans="2:5">
       <c r="B226" s="10" t="s">
@@ -5396,7 +5417,7 @@
       <c r="D226" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E226" s="2"/>
+      <c r="E226" s="3"/>
     </row>
     <row r="227" ht="20" customHeight="1" spans="2:5">
       <c r="B227" s="7" t="s">
@@ -5408,7 +5429,7 @@
       <c r="D227" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E227" s="2"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" ht="20" customHeight="1" spans="2:5">
       <c r="B228" s="10" t="s">
@@ -5420,7 +5441,7 @@
       <c r="D228" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="E228" s="2"/>
+      <c r="E228" s="3"/>
     </row>
     <row r="229" ht="20" customHeight="1" spans="2:5">
       <c r="B229" s="7" t="s">
@@ -5432,7 +5453,7 @@
       <c r="D229" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="E229" s="2"/>
+      <c r="E229" s="3"/>
     </row>
     <row r="230" ht="20" customHeight="1" spans="2:5">
       <c r="B230" s="10" t="s">
@@ -5444,7 +5465,7 @@
       <c r="D230" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E230" s="2"/>
+      <c r="E230" s="3"/>
     </row>
     <row r="231" ht="20" customHeight="1" spans="2:5">
       <c r="B231" s="7" t="s">
@@ -5456,7 +5477,7 @@
       <c r="D231" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="E231" s="2"/>
+      <c r="E231" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5476,13 +5497,14 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.125" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="20.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5493,138 +5515,176 @@
         <v>490</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="B4" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="C4" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="B5" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>493</v>
-      </c>
-      <c r="B5" s="2">
+      <c r="C5" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B6" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="2">
+      <c r="C6" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="B7" s="3">
         <v>668</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" s="2">
+      <c r="C7" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B8" s="3">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>496</v>
-      </c>
-      <c r="B8" s="2">
+      <c r="C8" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="B9" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9" s="2">
+      <c r="C9" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="B10" s="3">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="2">
+      <c r="C10" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="B11" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11" s="3">
-        <f>668+35*100</f>
+      <c r="C11" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="4">
+        <f>668+B10*100</f>
         <v>4168</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="B13" s="3">
-        <f>B11/B4*B5*24*60*60*B3/1024/1024/1024</f>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="4">
+        <f>B12/B5*B6*24*60*60*B4/1024/1024/1024</f>
         <v>33.5383415222168</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="B14" s="3">
-        <f>B11/B4*36*60*60*B3/1024/1024/1024</f>
-        <v>3.35383415222168</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="B15" s="3">
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="B14" s="4">
+        <f>B12/B5*B9*36*60*60*B4/1024/1024/1024</f>
+        <v>6.70766830444336</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="B15" s="4">
         <f>B14*8</f>
-        <v>26.8306732177734</v>
-      </c>
+        <v>53.6613464355469</v>
+      </c>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="B16" s="3">
-        <f>(B13+B15)*1.3</f>
-        <v>78.4797191619873</v>
-      </c>
-      <c r="C16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="B17" s="3">
+      <c r="A16" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="B16" s="4">
+        <f>(B13+B15)*1.2</f>
+        <v>104.639625549316</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="B17" s="4">
         <f>B14*3</f>
-        <v>10.061502456665</v>
-      </c>
+        <v>20.1230049133301</v>
+      </c>
+      <c r="C17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId3" display="参考" tooltip="http://support.transwarp.cn/t/topic/3226"/>
-    <hyperlink ref="B1" r:id="rId3" display="http://support.transwarp.cn/t/topic/3226" tooltip="http://support.transwarp.cn/t/topic/3226"/>
+    <hyperlink ref="A1" r:id="rId1" display="参考" tooltip="http://support.transwarp.cn/t/topic/3226"/>
+    <hyperlink ref="B1" r:id="rId1" display="http://support.transwarp.cn/t/topic/3226" tooltip="http://support.transwarp.cn/t/topic/3226"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>